--- a/files/synthetic/invoice_synth_4.xlsx
+++ b/files/synthetic/invoice_synth_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,28 +424,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PO Number: 9943</t>
+          <t>Invoice Number: 9031</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Due Date: 09/22/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Invoice Number: 8668</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Client Name: Maria Garcia</t>
+          <t>Client Name: John Smith</t>
         </is>
       </c>
     </row>
